--- a/food.xlsx
+++ b/food.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,16 +449,6 @@
           <t>email</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>total_of_method_value</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dupe</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,12 +469,6 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>87</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -505,12 +489,6 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>84</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -531,12 +509,6 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>164</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,12 +529,6 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>86</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,12 +549,6 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -609,12 +569,6 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>87</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -635,12 +589,6 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>85</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -661,12 +609,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>86</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -687,12 +629,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>85</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -713,12 +649,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>88</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -739,12 +669,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>84</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -765,12 +689,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>84</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -791,12 +709,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>84</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -817,12 +729,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>86</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -843,12 +749,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>86</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -869,12 +769,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>84</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -895,12 +789,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>84</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -921,12 +809,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>84</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -947,12 +829,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>85</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -973,12 +849,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>86</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -999,12 +869,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>84</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1025,12 +889,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>84</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1051,12 +909,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>79</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1077,12 +929,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>84</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1103,12 +949,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>89</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1129,12 +969,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>84</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1155,12 +989,6 @@
           <t>burger</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>78</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1181,12 +1009,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>76</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1207,12 +1029,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>75</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1233,12 +1049,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>84</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1259,12 +1069,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>85</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1285,12 +1089,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>87</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1311,12 +1109,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>84</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1337,12 +1129,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>84</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1363,12 +1149,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>86</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1389,12 +1169,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>86</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1415,12 +1189,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>73</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1441,12 +1209,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>88</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1467,12 +1229,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>84</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1493,12 +1249,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>75</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1519,12 +1269,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>88</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1545,12 +1289,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>84</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1571,12 +1309,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>85</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1597,12 +1329,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>86</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1623,12 +1349,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>85</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1649,12 +1369,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>84</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1675,12 +1389,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>87</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1701,12 +1409,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>80</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1727,12 +1429,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>87</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1753,12 +1449,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>84</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1779,12 +1469,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>85</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1805,12 +1489,6 @@
           <t>pie</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>86</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1831,12 +1509,6 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>85</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1857,12 +1529,6 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>84</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1883,12 +1549,6 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>80</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1909,12 +1569,6 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>84</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1935,12 +1589,6 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>84</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1961,12 +1609,6 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>82</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1987,12 +1629,6 @@
           <t>noodle</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>84</v>
-      </c>
-      <c r="F60" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2012,12 +1648,6 @@
         <is>
           <t>noodle</t>
         </is>
-      </c>
-      <c r="E61" t="n">
-        <v>82</v>
-      </c>
-      <c r="F61" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
